--- a/SW 模型/记录/Version_2/设计稿.xlsx
+++ b/SW 模型/记录/Version_2/设计稿.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20337"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学年文档\研一预备营\鞍马机器人\PommelBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学年文档\研一预备营\鞍马机器人\PommelBot\SW 模型\记录\Version_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329642E7-662F-496E-88BE-2F371D99FC0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267DAB14-C921-4B58-9F7C-BA446A0133C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" xr2:uid="{2FAC1348-D944-44E9-9328-9B935AED7C6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,9 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>身高 H</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -36,7 +44,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -71,15 +79,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF9C5700"/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <family val="2"/>
@@ -87,18 +103,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
+      <sz val="8"/>
+      <color rgb="FF9C5700"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -141,45 +149,54 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -204,16 +221,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>40277</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>327148</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>398924</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>175755</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>76195</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>86108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -236,8 +253,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5061857" y="0"/>
-          <a:ext cx="5845047" cy="5707875"/>
+          <a:off x="6584513" y="0"/>
+          <a:ext cx="5845047" cy="5698014"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -546,196 +563,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55B44DE-D7F1-4516-A713-88344F55C266}">
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="6" width="3.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="0.88671875" style="2" customWidth="1"/>
-    <col min="8" max="17" width="3.77734375" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="1.5546875" style="2" customWidth="1"/>
+    <col min="5" max="7" width="3.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="0.88671875" style="2" customWidth="1"/>
+    <col min="9" max="18" width="3.77734375" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4">
-        <f>0.13*A2</f>
+      <c r="F1" s="3"/>
+      <c r="G1" s="8">
+        <f>0.13*B2</f>
         <v>213.20000000000002</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="V1" s="2">
-        <f>N8</f>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="K1" s="14">
+        <f>G1+I4</f>
+        <v>298.48000000000008</v>
+      </c>
+      <c r="W1" s="2">
+        <f>O8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>1640</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="3"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="2">
-        <f>(0.87-0.818)*A2</f>
+      <c r="F2" s="3"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <f>K1+K6+K7+L11</f>
+        <v>1640</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="2">
+        <f>(0.87-0.818)*B2</f>
         <v>85.280000000000072</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="5"/>
       <c r="F5" s="6"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="4">
-        <f>0.129*A2</f>
+      <c r="H5" s="4"/>
+      <c r="I5" s="8">
+        <f>0.129*B2</f>
         <v>211.56</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="8">
-        <f>0.186*A2</f>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="7">
+        <f>0.186*B2</f>
         <v>305.04000000000002</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="4">
-        <f>0.146*A2</f>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="8">
+        <f>0.146*B2</f>
         <v>239.44</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="10">
-        <f>0.108*A2</f>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="15">
+        <f>0.108*B2</f>
         <v>177.12</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="8">
-        <f>0.174/2*A2</f>
+    <row r="6" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="7">
+        <f>0.174/2*B2</f>
         <v>142.67999999999998</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="11">
-        <f>(0.818-0.72)*A2</f>
+      <c r="J6" s="7"/>
+      <c r="K6" s="10">
+        <f>(0.818-0.72)*B2</f>
         <v>160.71999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="J7" s="12">
-        <f>(0.72-0.53)*A2</f>
+    <row r="7" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="K7" s="11">
+        <f>(0.72-0.53)*B2</f>
         <v>311.59999999999991</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="6"/>
-      <c r="G9" s="5"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:22" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="6"/>
-      <c r="G10" s="5"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="4">
-        <f>0.191/2*A2</f>
+    <row r="8" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="5"/>
+      <c r="H9" s="4"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="5"/>
+      <c r="H10" s="4"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="8">
+        <f>0.191/2*B2</f>
         <v>156.62</v>
       </c>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="5"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="5"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="5"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="6"/>
-      <c r="I16" s="9">
-        <f>0.246*A2</f>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9">
+        <f>(0.53-0.485)*B2</f>
+        <v>73.800000000000068</v>
+      </c>
+      <c r="L11" s="14">
+        <f>0.53*B2</f>
+        <v>869.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="12">
+        <f>(0.53-0.285)*B2</f>
+        <v>401.80000000000007</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="4"/>
+      <c r="J13" s="12"/>
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="4"/>
+      <c r="J14" s="12"/>
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="4"/>
+      <c r="J15" s="12"/>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="5"/>
+      <c r="J16" s="13">
+        <f>0.246*B2</f>
         <v>403.44</v>
       </c>
-    </row>
-    <row r="17" spans="5:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="6"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="5:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="6"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="5:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="6"/>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="5:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="5"/>
-      <c r="I20" s="5">
-        <f>0.039*A2</f>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="6:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="5"/>
+      <c r="J17" s="13"/>
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="6:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="5"/>
+      <c r="J18" s="13"/>
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="6:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="5"/>
+      <c r="J19" s="13"/>
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" spans="6:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="4"/>
+      <c r="J20" s="4">
+        <f>0.055*B2</f>
+        <v>90.2</v>
+      </c>
+      <c r="K20" s="2">
+        <f>0.039*B2</f>
         <v>63.96</v>
       </c>
-    </row>
-    <row r="21" spans="5:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="5:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="5:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="5:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="5:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="5:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="5:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="5:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="5:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="5:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="5:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="5:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="L20" s="14"/>
+    </row>
+    <row r="21" spans="6:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="6:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="6:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="6:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="6:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="6:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="6:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="6:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="6:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="6:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="6:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="6:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -743,16 +804,19 @@
     <row r="37" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F1:H3"/>
-    <mergeCell ref="H5:J5"/>
+  <mergeCells count="12">
+    <mergeCell ref="G1:I3"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L20"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SW 模型/记录/Version_2/设计稿.xlsx
+++ b/SW 模型/记录/Version_2/设计稿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学年文档\研一预备营\鞍马机器人\PommelBot\SW 模型\记录\Version_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267DAB14-C921-4B58-9F7C-BA446A0133C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B53EDB2-3BB3-4F04-B18F-C0B75B4711DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" xr2:uid="{2FAC1348-D944-44E9-9328-9B935AED7C6B}"/>
   </bookViews>
@@ -171,32 +171,32 @@
     <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -221,14 +221,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>327148</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>427938</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>76195</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>180956</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>86108</xdr:rowOff>
     </xdr:to>
@@ -253,8 +253,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6584513" y="0"/>
-          <a:ext cx="5845047" cy="5698014"/>
+          <a:off x="6110281" y="0"/>
+          <a:ext cx="5849018" cy="5681365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55B44DE-D7F1-4516-A713-88344F55C266}">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE12" sqref="AC11:AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="F1" s="3"/>
-      <c r="G1" s="8">
+      <c r="G1" s="9">
         <f>0.13*B2</f>
         <v>213.20000000000002</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="K1" s="14">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="K1" s="11">
         <f>G1+I4</f>
         <v>298.48000000000008</v>
       </c>
@@ -609,10 +609,10 @@
         <v>1640</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="K2" s="14"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -623,10 +623,10 @@
         <v>1640</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="K3" s="14"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F4" s="3"/>
@@ -635,32 +635,32 @@
         <f>(0.87-0.818)*B2</f>
         <v>85.280000000000072</v>
       </c>
-      <c r="K4" s="14"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
       <c r="G5" s="5"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="8">
+      <c r="I5" s="9">
         <f>0.129*B2</f>
         <v>211.56</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="7">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="12">
         <f>0.186*B2</f>
         <v>305.04000000000002</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="8">
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="9">
         <f>0.146*B2</f>
         <v>239.44</v>
       </c>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="15">
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="8">
         <f>0.108*B2</f>
         <v>177.12</v>
       </c>
@@ -670,12 +670,12 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="7">
+      <c r="I6" s="12">
         <f>0.174/2*B2</f>
         <v>142.67999999999998</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="10">
+      <c r="J6" s="12"/>
+      <c r="K6" s="7">
         <f>(0.818-0.72)*B2</f>
         <v>160.71999999999997</v>
       </c>
@@ -683,7 +683,7 @@
     <row r="7" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="K7" s="11">
+      <c r="K7" s="15">
         <f>(0.72-0.53)*B2</f>
         <v>311.59999999999991</v>
       </c>
@@ -691,33 +691,33 @@
     <row r="8" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="K8" s="11"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="5"/>
       <c r="H9" s="4"/>
-      <c r="K9" s="11"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="5"/>
       <c r="H10" s="4"/>
-      <c r="K10" s="11"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="5"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="8">
+      <c r="I11" s="9">
         <f>0.191/2*B2</f>
         <v>156.62</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="9">
+      <c r="J11" s="9"/>
+      <c r="K11" s="10">
         <f>(0.53-0.485)*B2</f>
         <v>73.800000000000068</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="11">
         <f>0.53*B2</f>
         <v>869.2</v>
       </c>
@@ -728,27 +728,27 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="12">
+      <c r="J12" s="14">
         <f>(0.53-0.285)*B2</f>
         <v>401.80000000000007</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="14"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F13" s="4"/>
-      <c r="J13" s="12"/>
-      <c r="L13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F14" s="4"/>
-      <c r="J14" s="12"/>
-      <c r="L14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F15" s="4"/>
-      <c r="J15" s="12"/>
-      <c r="L15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F16" s="5"/>
@@ -756,22 +756,22 @@
         <f>0.246*B2</f>
         <v>403.44</v>
       </c>
-      <c r="L16" s="14"/>
+      <c r="L16" s="11"/>
     </row>
     <row r="17" spans="6:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F17" s="5"/>
       <c r="J17" s="13"/>
-      <c r="L17" s="14"/>
+      <c r="L17" s="11"/>
     </row>
     <row r="18" spans="6:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="5"/>
       <c r="J18" s="13"/>
-      <c r="L18" s="14"/>
+      <c r="L18" s="11"/>
     </row>
     <row r="19" spans="6:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19" s="5"/>
       <c r="J19" s="13"/>
-      <c r="L19" s="14"/>
+      <c r="L19" s="11"/>
     </row>
     <row r="20" spans="6:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="4"/>
@@ -783,7 +783,7 @@
         <f>0.039*B2</f>
         <v>63.96</v>
       </c>
-      <c r="L20" s="14"/>
+      <c r="L20" s="11"/>
     </row>
     <row r="21" spans="6:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="6:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -805,18 +805,18 @@
     <row r="38" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="G1:I3"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="L11:L20"/>
     <mergeCell ref="K1:K4"/>
     <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
